--- a/biology/Botanique/Végépolys_Valley/Végépolys_Valley.xlsx
+++ b/biology/Botanique/Végépolys_Valley/Végépolys_Valley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9g%C3%A9polys_Valley</t>
+          <t>Végépolys_Valley</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Végépolys Valley, anciennement Végépolys, est un  pôle de compétitivité à vocation mondiale[2], reconnu par le gouvernement français, basé à Angers qui fédère les entreprises, les centres de recherche et de formation dans le domaine du végétal.
-Il regroupe plusieurs filières de la production végétale : la floriculture, le maraîchage, l’arboriculture, la vigne, les plantes médicinales (santé, beauté, bien-être), les champignons, les semences et jeunes plants, le cidre et le tabac[3]. On dénombre plus de 4 000 entreprises du végétal en Pays de la Loire employant plus de 30 000 personnes. Angers et sa région comptent de grands centres de formation et de laboratoires de recherche sur le végétal : l’Institut national de la recherche agronomique (INRA), Agrocampus ouest, l'université d'Angers, le GEVES, ou l’École supérieure d'agriculture d'Angers structuré au sein de la SFR QUASAV. Avec la structuration du pôle, on compte désormais plus de 450 chercheurs, ingénieurs techniciens ainsi que 2 500 étudiants.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Végépolys Valley, anciennement Végépolys, est un  pôle de compétitivité à vocation mondiale, reconnu par le gouvernement français, basé à Angers qui fédère les entreprises, les centres de recherche et de formation dans le domaine du végétal.
+Il regroupe plusieurs filières de la production végétale : la floriculture, le maraîchage, l’arboriculture, la vigne, les plantes médicinales (santé, beauté, bien-être), les champignons, les semences et jeunes plants, le cidre et le tabac. On dénombre plus de 4 000 entreprises du végétal en Pays de la Loire employant plus de 30 000 personnes. Angers et sa région comptent de grands centres de formation et de laboratoires de recherche sur le végétal : l’Institut national de la recherche agronomique (INRA), Agrocampus ouest, l'université d'Angers, le GEVES, ou l’École supérieure d'agriculture d'Angers structuré au sein de la SFR QUASAV. Avec la structuration du pôle, on compte désormais plus de 450 chercheurs, ingénieurs techniciens ainsi que 2 500 étudiants.
 Le pôle accompagne les innovations plus particulièrement autour de 3 axes technologiques :
 l'innovation variétale
 la protection des plantes et les systèmes de culture
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9g%C3%A9polys_Valley</t>
+          <t>Végépolys_Valley</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,12 +528,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pôle végétal angevin a été créé le 26 novembre 2004 sous la forme d'une association loi de 1901 avec pour objet la contribution au développement des filières spécialisées dans le végétal en Anjou, en Pays de la Loire, en France et en Europe[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pôle végétal angevin a été créé le 26 novembre 2004 sous la forme d'une association loi de 1901 avec pour objet la contribution au développement des filières spécialisées dans le végétal en Anjou, en Pays de la Loire, en France et en Europe.
 D'abord nommé Comité Interprofessionnel du Végétal Spécialisé (CIVS), sa dénomination a changé pour son nom actuel lors de l'assemblée générale le 23 mars 2007.
-En 2018, dans le cadre de l'évolution des pôles de compétitivité et de re-labellistion pour la période 2019-2022 (Phase IV[5]), Végépolys a déposé un projet afin de fusionner avec Céréales Vallée (basé à Clermont-Ferrand) de façon à créer un pôle de compétitivité d'envergure mondiale sur tout le domaine du végétal[6]. La fusion-absorption est effective depuis le 27 juin 2019[7] sous le nom Vegepolys Valley.
-En 2021, Vegepolys Valley compte 517 structures adhérentes, dont 76 % d'entreprises[8].
+En 2018, dans le cadre de l'évolution des pôles de compétitivité et de re-labellistion pour la période 2019-2022 (Phase IV), Végépolys a déposé un projet afin de fusionner avec Céréales Vallée (basé à Clermont-Ferrand) de façon à créer un pôle de compétitivité d'envergure mondiale sur tout le domaine du végétal. La fusion-absorption est effective depuis le 27 juin 2019 sous le nom Vegepolys Valley.
+En 2021, Vegepolys Valley compte 517 structures adhérentes, dont 76 % d'entreprises.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9g%C3%A9polys_Valley</t>
+          <t>Végépolys_Valley</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +564,12 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2021, Vegepolys Valley a soutenu 64 projets de recherche autour du végétal, pour un total de 112 millions d'euros[8].
-En 2023, il accompagne 92 projets R&amp;D[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, Vegepolys Valley a soutenu 64 projets de recherche autour du végétal, pour un total de 112 millions d'euros.
+En 2023, il accompagne 92 projets R&amp;D.
 </t>
         </is>
       </c>
